--- a/nik_report.xlsx
+++ b/nik_report.xlsx
@@ -70,7 +70,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="165" formatCode="Rp#,##.,00"/>
+    <numFmt numFmtId="165" formatCode="Rp#,##0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
